--- a/Excel/S6/Mapas.xlsx
+++ b/Excel/S6/Mapas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\ProjWAV\Excel\S6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4B811D-AC2F-4841-ADE1-68A378A3D613}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C66E39B-ADAB-4D07-A114-B47A579CA0C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2111DDC4-C73B-4B69-836A-42B75DC465D6}"/>
   </bookViews>
@@ -2095,13 +2095,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{87E9E1FE-9BA2-4607-A5E0-1C1C52EB8967}" name="Tabela1" displayName="Tabela1" ref="A1:D646" totalsRowShown="0">
-  <autoFilter ref="A1:D646" xr:uid="{2AF04349-A6CE-4A82-9E6B-0BC3E9FB2AA9}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="AAAA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D646" xr:uid="{2AF04349-A6CE-4A82-9E6B-0BC3E9FB2AA9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8CA6DBDF-0DAB-4F21-8035-E36EE0A6F04C}" name="Cidade"/>
     <tableColumn id="2" xr3:uid="{EC07701E-58B7-4C8B-B6F3-0502E449026E}" name="code_muni"/>
@@ -2411,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A27753-1320-495E-8918-0E591630EFB7}">
   <dimension ref="A1:D646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="D647" sqref="D647"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2435,7 +2429,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2449,7 +2443,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2485,13 +2479,13 @@
         <v>3500402</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2513,7 +2507,7 @@
         <v>3500550</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -2527,7 +2521,7 @@
         <v>3500600</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2541,13 +2535,13 @@
         <v>3500709</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2561,7 +2555,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2575,7 +2569,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2589,7 +2583,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2603,7 +2597,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2617,7 +2611,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2631,7 +2625,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2645,7 +2639,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2659,7 +2653,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2673,7 +2667,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2695,7 +2689,7 @@
         <v>3501608</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -2715,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2737,13 +2731,13 @@
         <v>3501905</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2757,7 +2751,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2779,7 +2773,7 @@
         <v>3502200</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -2793,13 +2787,13 @@
         <v>3502309</v>
       </c>
       <c r="C27" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2813,7 +2807,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2827,7 +2821,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2849,13 +2843,13 @@
         <v>3502705</v>
       </c>
       <c r="C31" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2883,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2897,7 +2891,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2911,7 +2905,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2925,7 +2919,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2947,7 +2941,7 @@
         <v>3503208</v>
       </c>
       <c r="C38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -2961,13 +2955,13 @@
         <v>3503307</v>
       </c>
       <c r="C39" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2981,7 +2975,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2995,7 +2989,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -3009,7 +3003,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -3023,7 +3017,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3051,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -3065,7 +3059,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -3087,7 +3081,7 @@
         <v>3504008</v>
       </c>
       <c r="C48" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -3101,13 +3095,13 @@
         <v>3504107</v>
       </c>
       <c r="C49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3121,7 +3115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -3135,7 +3129,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -3157,13 +3151,13 @@
         <v>3504503</v>
       </c>
       <c r="C53" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D53" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -3177,7 +3171,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -3191,7 +3185,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -3205,7 +3199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -3219,7 +3213,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -3233,7 +3227,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -3247,7 +3241,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -3261,7 +3255,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -3283,7 +3277,7 @@
         <v>3505351</v>
       </c>
       <c r="C62" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -3297,13 +3291,13 @@
         <v>3505401</v>
       </c>
       <c r="C63" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -3317,7 +3311,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3331,7 +3325,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -3345,7 +3339,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -3367,7 +3361,7 @@
         <v>3505906</v>
       </c>
       <c r="C68" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -3381,13 +3375,13 @@
         <v>3506003</v>
       </c>
       <c r="C69" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -3401,7 +3395,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -3415,7 +3409,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -3437,13 +3431,13 @@
         <v>3506359</v>
       </c>
       <c r="C73" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D73" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -3457,7 +3451,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -3479,7 +3473,7 @@
         <v>3506607</v>
       </c>
       <c r="C76" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -3499,7 +3493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -3513,7 +3507,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -3527,7 +3521,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -3541,7 +3535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -3563,13 +3557,13 @@
         <v>3507159</v>
       </c>
       <c r="C82" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -3597,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -3611,7 +3605,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -3633,7 +3627,7 @@
         <v>3507506</v>
       </c>
       <c r="C87" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" s="2">
         <v>1</v>
@@ -3647,13 +3641,13 @@
         <v>3507605</v>
       </c>
       <c r="C88" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -3667,7 +3661,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -3681,7 +3675,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -3703,7 +3697,7 @@
         <v>3507902</v>
       </c>
       <c r="C92" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -3717,7 +3711,7 @@
         <v>3508009</v>
       </c>
       <c r="C93" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D93" s="2">
         <v>1</v>
@@ -3737,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -3751,7 +3745,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -3773,13 +3767,13 @@
         <v>3508405</v>
       </c>
       <c r="C97" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D97" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -3793,7 +3787,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -3807,7 +3801,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -3835,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -3849,7 +3843,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -3863,7 +3857,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -3877,7 +3871,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -3899,13 +3893,13 @@
         <v>3509254</v>
       </c>
       <c r="C106" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D106" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -3919,7 +3913,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -3933,7 +3927,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -3955,13 +3949,13 @@
         <v>3509502</v>
       </c>
       <c r="C110" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D110" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -3983,13 +3977,13 @@
         <v>3509700</v>
       </c>
       <c r="C112" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D112" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -4011,13 +4005,13 @@
         <v>3509908</v>
       </c>
       <c r="C114" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D114" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -4031,7 +4025,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -4045,7 +4039,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -4059,7 +4053,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -4081,13 +4075,13 @@
         <v>3510203</v>
       </c>
       <c r="C119" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D119" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -4101,7 +4095,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -4123,13 +4117,13 @@
         <v>3510500</v>
       </c>
       <c r="C122" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D122" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -4143,7 +4137,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -4157,7 +4151,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -4171,7 +4165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -4199,7 +4193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -4213,7 +4207,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -4227,7 +4221,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -4241,7 +4235,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -4263,13 +4257,13 @@
         <v>3511508</v>
       </c>
       <c r="C132" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -4297,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -4311,7 +4305,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -4325,7 +4319,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -4339,7 +4333,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -4361,13 +4355,13 @@
         <v>3512209</v>
       </c>
       <c r="C139" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D139" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -4381,7 +4375,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -4395,7 +4389,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -4409,7 +4403,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -4423,7 +4417,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -4451,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -4473,13 +4467,13 @@
         <v>3513009</v>
       </c>
       <c r="C147" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D147" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -4493,7 +4487,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -4507,7 +4501,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -4521,7 +4515,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -4543,7 +4537,7 @@
         <v>3513504</v>
       </c>
       <c r="C152" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D152" s="1">
         <v>1</v>
@@ -4557,13 +4551,13 @@
         <v>3513603</v>
       </c>
       <c r="C153" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D153" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -4577,7 +4571,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -4591,7 +4585,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -4613,13 +4607,13 @@
         <v>3513900</v>
       </c>
       <c r="C157" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D157" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -4633,7 +4627,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -4647,7 +4641,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -4669,13 +4663,13 @@
         <v>3514304</v>
       </c>
       <c r="C161" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D161" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -4689,7 +4683,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -4703,7 +4697,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -4717,7 +4711,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -4739,13 +4733,13 @@
         <v>3514809</v>
       </c>
       <c r="C166" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D166" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -4759,7 +4753,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -4773,7 +4767,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -4787,7 +4781,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -4809,13 +4803,13 @@
         <v>3515103</v>
       </c>
       <c r="C171" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D171" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -4829,7 +4823,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -4843,7 +4837,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -4857,7 +4851,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -4871,7 +4865,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -4885,7 +4879,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -4899,7 +4893,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -4921,13 +4915,13 @@
         <v>3515350</v>
       </c>
       <c r="C179" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D179" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -4941,7 +4935,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -4955,7 +4949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -4969,7 +4963,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -4983,7 +4977,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -4997,7 +4991,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -5011,7 +5005,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -5025,7 +5019,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -5039,7 +5033,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -5061,13 +5055,13 @@
         <v>3516200</v>
       </c>
       <c r="C189" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D189" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -5081,7 +5075,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -5095,7 +5089,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -5117,7 +5111,7 @@
         <v>3516606</v>
       </c>
       <c r="C193" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D193" s="2">
         <v>1</v>
@@ -5131,13 +5125,13 @@
         <v>3516705</v>
       </c>
       <c r="C194" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -5151,7 +5145,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -5165,7 +5159,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -5179,7 +5173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -5193,7 +5187,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -5207,7 +5201,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -5221,7 +5215,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -5235,7 +5229,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -5249,7 +5243,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -5271,13 +5265,13 @@
         <v>3517604</v>
       </c>
       <c r="C204" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D204" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -5291,7 +5285,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -5305,7 +5299,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -5319,7 +5313,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -5333,7 +5327,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -5361,7 +5355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -5375,7 +5369,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -5389,7 +5383,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -5403,7 +5397,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -5425,7 +5419,7 @@
         <v>3518701</v>
       </c>
       <c r="C215" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D215" s="2">
         <v>5</v>
@@ -5439,13 +5433,13 @@
         <v>3518800</v>
       </c>
       <c r="C216" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -5459,7 +5453,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -5473,7 +5467,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -5487,7 +5481,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -5515,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -5543,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -5557,7 +5551,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -5571,7 +5565,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -5585,7 +5579,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -5599,7 +5593,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -5621,13 +5615,13 @@
         <v>3519709</v>
       </c>
       <c r="C229" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D229" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -5641,7 +5635,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -5655,7 +5649,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -5669,7 +5663,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -5691,7 +5685,7 @@
         <v>3520202</v>
       </c>
       <c r="C234" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -5705,7 +5699,7 @@
         <v>3520301</v>
       </c>
       <c r="C235" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D235" s="2">
         <v>3</v>
@@ -5719,13 +5713,13 @@
         <v>3520426</v>
       </c>
       <c r="C236" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -5747,7 +5741,7 @@
         <v>3520400</v>
       </c>
       <c r="C238" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D238" s="1">
         <v>1</v>
@@ -5761,13 +5755,13 @@
         <v>3520509</v>
       </c>
       <c r="C239" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D239" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -5781,7 +5775,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -5795,7 +5789,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -5809,7 +5803,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -5831,13 +5825,13 @@
         <v>3521002</v>
       </c>
       <c r="C244" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D244" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -5851,7 +5845,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -5873,13 +5867,13 @@
         <v>3521200</v>
       </c>
       <c r="C247" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D247" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -5893,7 +5887,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -5907,7 +5901,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -5921,7 +5915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -5935,7 +5929,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -5949,7 +5943,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -5963,7 +5957,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -5977,7 +5971,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -5999,13 +5993,13 @@
         <v>3522109</v>
       </c>
       <c r="C256" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D256" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>257</v>
       </c>
@@ -6019,7 +6013,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -6041,7 +6035,7 @@
         <v>3522307</v>
       </c>
       <c r="C259" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D259" s="2">
         <v>3</v>
@@ -6055,7 +6049,7 @@
         <v>3522406</v>
       </c>
       <c r="C260" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
@@ -6069,7 +6063,7 @@
         <v>3522505</v>
       </c>
       <c r="C261" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D261" s="2">
         <v>1</v>
@@ -6083,13 +6077,13 @@
         <v>3522604</v>
       </c>
       <c r="C262" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>263</v>
       </c>
@@ -6103,7 +6097,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -6117,7 +6111,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -6131,7 +6125,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -6145,7 +6139,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -6167,7 +6161,7 @@
         <v>3523107</v>
       </c>
       <c r="C268" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D268" s="1">
         <v>1</v>
@@ -6181,13 +6175,13 @@
         <v>3523206</v>
       </c>
       <c r="C269" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D269" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -6209,13 +6203,13 @@
         <v>3523404</v>
       </c>
       <c r="C271" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D271" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -6237,13 +6231,13 @@
         <v>3523602</v>
       </c>
       <c r="C273" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D273" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -6257,7 +6251,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -6271,7 +6265,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -6293,13 +6287,13 @@
         <v>3524006</v>
       </c>
       <c r="C277" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D277" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -6313,7 +6307,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -6327,7 +6321,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -6341,7 +6335,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>281</v>
       </c>
@@ -6355,7 +6349,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -6377,7 +6371,7 @@
         <v>3524600</v>
       </c>
       <c r="C283" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D283" s="2">
         <v>5</v>
@@ -6391,13 +6385,13 @@
         <v>3524709</v>
       </c>
       <c r="C284" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D284" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -6411,7 +6405,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -6425,7 +6419,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -6439,7 +6433,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -6453,7 +6447,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>289</v>
       </c>
@@ -6475,13 +6469,13 @@
         <v>3525300</v>
       </c>
       <c r="C290" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D290" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -6495,7 +6489,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>292</v>
       </c>
@@ -6509,7 +6503,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>293</v>
       </c>
@@ -6537,7 +6531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>295</v>
       </c>
@@ -6551,7 +6545,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>296</v>
       </c>
@@ -6573,13 +6567,13 @@
         <v>3525904</v>
       </c>
       <c r="C297" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D297" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>298</v>
       </c>
@@ -6601,7 +6595,7 @@
         <v>3526100</v>
       </c>
       <c r="C299" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D299" s="2">
         <v>3</v>
@@ -6615,13 +6609,13 @@
         <v>3526209</v>
       </c>
       <c r="C300" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D300" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>301</v>
       </c>
@@ -6635,7 +6629,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>302</v>
       </c>
@@ -6649,7 +6643,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>303</v>
       </c>
@@ -6663,7 +6657,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>304</v>
       </c>
@@ -6677,7 +6671,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>305</v>
       </c>
@@ -6699,13 +6693,13 @@
         <v>3526803</v>
       </c>
       <c r="C306" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D306" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>307</v>
       </c>
@@ -6719,7 +6713,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>308</v>
       </c>
@@ -6733,7 +6727,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>309</v>
       </c>
@@ -6747,7 +6741,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>310</v>
       </c>
@@ -6761,7 +6755,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>311</v>
       </c>
@@ -6775,7 +6769,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>312</v>
       </c>
@@ -6789,7 +6783,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>313</v>
       </c>
@@ -6803,7 +6797,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>314</v>
       </c>
@@ -6831,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>316</v>
       </c>
@@ -6845,7 +6839,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>317</v>
       </c>
@@ -6859,7 +6853,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>318</v>
       </c>
@@ -6887,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>320</v>
       </c>
@@ -6901,7 +6895,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>321</v>
       </c>
@@ -6915,7 +6909,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>322</v>
       </c>
@@ -6929,7 +6923,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>323</v>
       </c>
@@ -6951,13 +6945,13 @@
         <v>3528502</v>
       </c>
       <c r="C324" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D324" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>325</v>
       </c>
@@ -6971,7 +6965,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>326</v>
       </c>
@@ -6985,7 +6979,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>327</v>
       </c>
@@ -6999,7 +6993,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>328</v>
       </c>
@@ -7013,7 +7007,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>329</v>
       </c>
@@ -7027,7 +7021,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>330</v>
       </c>
@@ -7041,7 +7035,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>331</v>
       </c>
@@ -7055,7 +7049,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>332</v>
       </c>
@@ -7069,7 +7063,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>333</v>
       </c>
@@ -7083,7 +7077,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>334</v>
       </c>
@@ -7097,7 +7091,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>335</v>
       </c>
@@ -7111,7 +7105,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>336</v>
       </c>
@@ -7125,7 +7119,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>337</v>
       </c>
@@ -7139,7 +7133,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -7161,13 +7155,13 @@
         <v>3529807</v>
       </c>
       <c r="C339" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D339" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>340</v>
       </c>
@@ -7189,7 +7183,7 @@
         <v>3529906</v>
       </c>
       <c r="C341" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D341" s="2">
         <v>5</v>
@@ -7209,7 +7203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>343</v>
       </c>
@@ -7237,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>345</v>
       </c>
@@ -7259,7 +7253,7 @@
         <v>3530508</v>
       </c>
       <c r="C346" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D346" s="1">
         <v>1</v>
@@ -7273,7 +7267,7 @@
         <v>3530607</v>
       </c>
       <c r="C347" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D347" s="2">
         <v>1</v>
@@ -7287,7 +7281,7 @@
         <v>3530706</v>
       </c>
       <c r="C348" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D348" s="1">
         <v>1</v>
@@ -7301,13 +7295,13 @@
         <v>3530805</v>
       </c>
       <c r="C349" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D349" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>350</v>
       </c>
@@ -7321,7 +7315,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>351</v>
       </c>
@@ -7343,7 +7337,7 @@
         <v>3531100</v>
       </c>
       <c r="C352" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D352" s="1">
         <v>1</v>
@@ -7357,13 +7351,13 @@
         <v>3531209</v>
       </c>
       <c r="C353" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D353" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>354</v>
       </c>
@@ -7377,7 +7371,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>355</v>
       </c>
@@ -7391,7 +7385,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>356</v>
       </c>
@@ -7405,7 +7399,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>357</v>
       </c>
@@ -7433,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>359</v>
       </c>
@@ -7461,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>361</v>
       </c>
@@ -7475,7 +7469,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>362</v>
       </c>
@@ -7489,7 +7483,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>363</v>
       </c>
@@ -7503,7 +7497,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>364</v>
       </c>
@@ -7531,7 +7525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>366</v>
       </c>
@@ -7545,7 +7539,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>367</v>
       </c>
@@ -7559,7 +7553,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>368</v>
       </c>
@@ -7573,7 +7567,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>369</v>
       </c>
@@ -7587,7 +7581,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>370</v>
       </c>
@@ -7601,7 +7595,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>371</v>
       </c>
@@ -7623,13 +7617,13 @@
         <v>3532827</v>
       </c>
       <c r="C372" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D372" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>373</v>
       </c>
@@ -7643,7 +7637,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>374</v>
       </c>
@@ -7657,7 +7651,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>375</v>
       </c>
@@ -7671,7 +7665,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>376</v>
       </c>
@@ -7685,7 +7679,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>377</v>
       </c>
@@ -7699,7 +7693,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>378</v>
       </c>
@@ -7713,7 +7707,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>379</v>
       </c>
@@ -7741,7 +7735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>381</v>
       </c>
@@ -7755,7 +7749,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>382</v>
       </c>
@@ -7769,7 +7763,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>383</v>
       </c>
@@ -7783,7 +7777,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>384</v>
       </c>
@@ -7805,13 +7799,13 @@
         <v>3533809</v>
       </c>
       <c r="C385" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D385" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>386</v>
       </c>
@@ -7825,7 +7819,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>387</v>
       </c>
@@ -7839,7 +7833,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>388</v>
       </c>
@@ -7853,7 +7847,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>389</v>
       </c>
@@ -7867,7 +7861,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>390</v>
       </c>
@@ -7881,7 +7875,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>391</v>
       </c>
@@ -7895,7 +7889,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>392</v>
       </c>
@@ -7909,7 +7903,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>393</v>
       </c>
@@ -7923,7 +7917,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>394</v>
       </c>
@@ -7937,7 +7931,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>395</v>
       </c>
@@ -7951,7 +7945,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>396</v>
       </c>
@@ -7965,7 +7959,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>397</v>
       </c>
@@ -7979,7 +7973,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>398</v>
       </c>
@@ -7993,7 +7987,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>399</v>
       </c>
@@ -8007,7 +8001,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>400</v>
       </c>
@@ -8021,7 +8015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>401</v>
       </c>
@@ -8035,7 +8029,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>402</v>
       </c>
@@ -8049,7 +8043,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>403</v>
       </c>
@@ -8063,7 +8057,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>404</v>
       </c>
@@ -8077,7 +8071,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>405</v>
       </c>
@@ -8099,13 +8093,13 @@
         <v>3535804</v>
       </c>
       <c r="C406" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D406" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>407</v>
       </c>
@@ -8119,7 +8113,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>408</v>
       </c>
@@ -8133,7 +8127,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>409</v>
       </c>
@@ -8155,13 +8149,13 @@
         <v>3536208</v>
       </c>
       <c r="C410" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D410" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>411</v>
       </c>
@@ -8189,7 +8183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>413</v>
       </c>
@@ -8211,13 +8205,13 @@
         <v>3536505</v>
       </c>
       <c r="C414" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D414" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>415</v>
       </c>
@@ -8231,7 +8225,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>416</v>
       </c>
@@ -8245,7 +8239,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>417</v>
       </c>
@@ -8259,7 +8253,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>418</v>
       </c>
@@ -8273,7 +8267,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>419</v>
       </c>
@@ -8287,7 +8281,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>420</v>
       </c>
@@ -8309,13 +8303,13 @@
         <v>3537107</v>
       </c>
       <c r="C421" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D421" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>422</v>
       </c>
@@ -8329,7 +8323,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>423</v>
       </c>
@@ -8371,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>426</v>
       </c>
@@ -8393,7 +8387,7 @@
         <v>3537602</v>
       </c>
       <c r="C427" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D427" s="2">
         <v>3</v>
@@ -8407,7 +8401,7 @@
         <v>3537701</v>
       </c>
       <c r="C428" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D428" s="1">
         <v>2</v>
@@ -8421,13 +8415,13 @@
         <v>3537800</v>
       </c>
       <c r="C429" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D429" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>430</v>
       </c>
@@ -8449,13 +8443,13 @@
         <v>3538006</v>
       </c>
       <c r="C431" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D431" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>432</v>
       </c>
@@ -8469,7 +8463,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>433</v>
       </c>
@@ -8483,7 +8477,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>434</v>
       </c>
@@ -8505,13 +8499,13 @@
         <v>3538501</v>
       </c>
       <c r="C435" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D435" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>436</v>
       </c>
@@ -8533,7 +8527,7 @@
         <v>3538709</v>
       </c>
       <c r="C437" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D437" s="2">
         <v>1</v>
@@ -8547,13 +8541,13 @@
         <v>3538808</v>
       </c>
       <c r="C438" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D438" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>439</v>
       </c>
@@ -8567,7 +8561,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>440</v>
       </c>
@@ -8581,7 +8575,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>441</v>
       </c>
@@ -8595,7 +8589,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>442</v>
       </c>
@@ -8617,13 +8611,13 @@
         <v>3539301</v>
       </c>
       <c r="C443" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D443" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>444</v>
       </c>
@@ -8651,7 +8645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>446</v>
       </c>
@@ -8665,7 +8659,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>447</v>
       </c>
@@ -8679,7 +8673,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>448</v>
       </c>
@@ -8693,7 +8687,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>449</v>
       </c>
@@ -8707,7 +8701,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>450</v>
       </c>
@@ -8721,7 +8715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>451</v>
       </c>
@@ -8735,7 +8729,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>452</v>
       </c>
@@ -8749,7 +8743,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>453</v>
       </c>
@@ -8763,7 +8757,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>454</v>
       </c>
@@ -8777,7 +8771,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>455</v>
       </c>
@@ -8791,7 +8785,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>456</v>
       </c>
@@ -8805,7 +8799,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>457</v>
       </c>
@@ -8827,13 +8821,13 @@
         <v>3540705</v>
       </c>
       <c r="C458" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D458" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>459</v>
       </c>
@@ -8847,7 +8841,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>460</v>
       </c>
@@ -8861,7 +8855,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>461</v>
       </c>
@@ -8875,7 +8869,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>462</v>
       </c>
@@ -8897,13 +8891,13 @@
         <v>3541000</v>
       </c>
       <c r="C463" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D463" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>464</v>
       </c>
@@ -8917,7 +8911,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>465</v>
       </c>
@@ -8931,7 +8925,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>466</v>
       </c>
@@ -8959,7 +8953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>468</v>
       </c>
@@ -8973,7 +8967,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>469</v>
       </c>
@@ -9001,7 +8995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>471</v>
       </c>
@@ -9015,7 +9009,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>472</v>
       </c>
@@ -9029,7 +9023,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>473</v>
       </c>
@@ -9043,7 +9037,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>474</v>
       </c>
@@ -9057,7 +9051,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>475</v>
       </c>
@@ -9071,7 +9065,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>476</v>
       </c>
@@ -9085,7 +9079,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>477</v>
       </c>
@@ -9099,7 +9093,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>478</v>
       </c>
@@ -9113,7 +9107,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>479</v>
       </c>
@@ -9127,7 +9121,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>480</v>
       </c>
@@ -9149,13 +9143,13 @@
         <v>3542602</v>
       </c>
       <c r="C481" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D481" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>482</v>
       </c>
@@ -9169,7 +9163,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>483</v>
       </c>
@@ -9205,13 +9199,13 @@
         <v>3543006</v>
       </c>
       <c r="C485" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D485" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>486</v>
       </c>
@@ -9225,7 +9219,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>487</v>
       </c>
@@ -9239,7 +9233,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>488</v>
       </c>
@@ -9261,13 +9255,13 @@
         <v>3543253</v>
       </c>
       <c r="C489" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D489" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>490</v>
       </c>
@@ -9281,7 +9275,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>491</v>
       </c>
@@ -9295,7 +9289,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>492</v>
       </c>
@@ -9323,7 +9317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>494</v>
       </c>
@@ -9345,13 +9339,13 @@
         <v>3543907</v>
       </c>
       <c r="C495" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D495" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>496</v>
       </c>
@@ -9373,13 +9367,13 @@
         <v>3544103</v>
       </c>
       <c r="C497" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D497" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>498</v>
       </c>
@@ -9393,7 +9387,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>499</v>
       </c>
@@ -9407,7 +9401,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>500</v>
       </c>
@@ -9421,7 +9415,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>501</v>
       </c>
@@ -9435,7 +9429,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>502</v>
       </c>
@@ -9449,7 +9443,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>503</v>
       </c>
@@ -9463,7 +9457,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>504</v>
       </c>
@@ -9477,7 +9471,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>505</v>
       </c>
@@ -9491,7 +9485,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>506</v>
       </c>
@@ -9505,7 +9499,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>507</v>
       </c>
@@ -9527,13 +9521,13 @@
         <v>3545001</v>
       </c>
       <c r="C508" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D508" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>509</v>
       </c>
@@ -9547,7 +9541,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>510</v>
       </c>
@@ -9561,7 +9555,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>511</v>
       </c>
@@ -9575,7 +9569,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>512</v>
       </c>
@@ -9589,7 +9583,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>513</v>
       </c>
@@ -9603,7 +9597,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>514</v>
       </c>
@@ -9617,7 +9611,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>515</v>
       </c>
@@ -9631,7 +9625,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>516</v>
       </c>
@@ -9645,7 +9639,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>517</v>
       </c>
@@ -9659,7 +9653,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>518</v>
       </c>
@@ -9673,7 +9667,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>519</v>
       </c>
@@ -9687,7 +9681,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>520</v>
       </c>
@@ -9701,7 +9695,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>521</v>
       </c>
@@ -9715,7 +9709,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>522</v>
       </c>
@@ -9729,7 +9723,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>523</v>
       </c>
@@ -9743,7 +9737,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>524</v>
       </c>
@@ -9757,7 +9751,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>525</v>
       </c>
@@ -9771,7 +9765,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>526</v>
       </c>
@@ -9785,7 +9779,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>527</v>
       </c>
@@ -9799,7 +9793,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>528</v>
       </c>
@@ -9827,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>530</v>
       </c>
@@ -9841,7 +9835,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>531</v>
       </c>
@@ -9855,7 +9849,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>532</v>
       </c>
@@ -9869,7 +9863,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>533</v>
       </c>
@@ -9883,7 +9877,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>534</v>
       </c>
@@ -9897,7 +9891,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>535</v>
       </c>
@@ -9911,7 +9905,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>536</v>
       </c>
@@ -9925,7 +9919,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>537</v>
       </c>
@@ -9947,13 +9941,13 @@
         <v>3547809</v>
       </c>
       <c r="C538" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D538" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>539</v>
       </c>
@@ -9995,7 +9989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>542</v>
       </c>
@@ -10009,7 +10003,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>543</v>
       </c>
@@ -10023,7 +10017,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>544</v>
       </c>
@@ -10037,7 +10031,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>545</v>
       </c>
@@ -10059,13 +10053,13 @@
         <v>3548500</v>
       </c>
       <c r="C546" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D546" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>547</v>
       </c>
@@ -10087,7 +10081,7 @@
         <v>3548708</v>
       </c>
       <c r="C548" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D548" s="1">
         <v>1</v>
@@ -10115,13 +10109,13 @@
         <v>3548906</v>
       </c>
       <c r="C550" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D550" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>551</v>
       </c>
@@ -10135,7 +10129,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>552</v>
       </c>
@@ -10149,7 +10143,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>553</v>
       </c>
@@ -10163,7 +10157,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>554</v>
       </c>
@@ -10177,7 +10171,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>555</v>
       </c>
@@ -10191,7 +10185,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>556</v>
       </c>
@@ -10205,7 +10199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>557</v>
       </c>
@@ -10227,7 +10221,7 @@
         <v>3549607</v>
       </c>
       <c r="C558" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D558" s="1">
         <v>1</v>
@@ -10241,7 +10235,7 @@
         <v>3549706</v>
       </c>
       <c r="C559" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D559" s="2">
         <v>1</v>
@@ -10269,13 +10263,13 @@
         <v>3549904</v>
       </c>
       <c r="C561" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D561" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>562</v>
       </c>
@@ -10297,7 +10291,7 @@
         <v>3550001</v>
       </c>
       <c r="C563" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D563" s="2">
         <v>3</v>
@@ -10311,7 +10305,7 @@
         <v>3550100</v>
       </c>
       <c r="C564" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D564" s="1">
         <v>1</v>
@@ -10325,7 +10319,7 @@
         <v>3550209</v>
       </c>
       <c r="C565" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D565" s="2">
         <v>1</v>
@@ -10339,7 +10333,7 @@
         <v>3550308</v>
       </c>
       <c r="C566" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D566" s="1">
         <v>3</v>
@@ -10353,13 +10347,13 @@
         <v>3550407</v>
       </c>
       <c r="C567" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D567" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>568</v>
       </c>
@@ -10373,7 +10367,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>569</v>
       </c>
@@ -10395,7 +10389,7 @@
         <v>3550704</v>
       </c>
       <c r="C570" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D570" s="1">
         <v>3</v>
@@ -10409,7 +10403,7 @@
         <v>3550803</v>
       </c>
       <c r="C571" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D571" s="2">
         <v>2</v>
@@ -10437,7 +10431,7 @@
         <v>3551009</v>
       </c>
       <c r="C573" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D573" s="2">
         <v>1</v>
@@ -10451,13 +10445,13 @@
         <v>3551108</v>
       </c>
       <c r="C574" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D574" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>575</v>
       </c>
@@ -10471,7 +10465,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>576</v>
       </c>
@@ -10485,7 +10479,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>577</v>
       </c>
@@ -10499,7 +10493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>578</v>
       </c>
@@ -10513,7 +10507,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>579</v>
       </c>
@@ -10527,7 +10521,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>580</v>
       </c>
@@ -10549,13 +10543,13 @@
         <v>3551801</v>
       </c>
       <c r="C581" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D581" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>582</v>
       </c>
@@ -10569,7 +10563,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>583</v>
       </c>
@@ -10591,7 +10585,7 @@
         <v>3552106</v>
       </c>
       <c r="C584" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D584" s="1">
         <v>1</v>
@@ -10605,13 +10599,13 @@
         <v>3552205</v>
       </c>
       <c r="C585" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D585" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>586</v>
       </c>
@@ -10639,7 +10633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>588</v>
       </c>
@@ -10653,7 +10647,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>589</v>
       </c>
@@ -10667,7 +10661,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>590</v>
       </c>
@@ -10681,7 +10675,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>591</v>
       </c>
@@ -10695,7 +10689,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>592</v>
       </c>
@@ -10709,7 +10703,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>593</v>
       </c>
@@ -10723,7 +10717,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>594</v>
       </c>
@@ -10737,7 +10731,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>595</v>
       </c>
@@ -10751,7 +10745,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>596</v>
       </c>
@@ -10765,7 +10759,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>597</v>
       </c>
@@ -10779,7 +10773,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>598</v>
       </c>
@@ -10801,7 +10795,7 @@
         <v>3553500</v>
       </c>
       <c r="C599" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D599" s="2">
         <v>1</v>
@@ -10815,13 +10809,13 @@
         <v>3553609</v>
       </c>
       <c r="C600" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D600" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>601</v>
       </c>
@@ -10835,7 +10829,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>602</v>
       </c>
@@ -10849,7 +10843,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>603</v>
       </c>
@@ -10863,7 +10857,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>604</v>
       </c>
@@ -10877,7 +10871,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>605</v>
       </c>
@@ -10891,7 +10885,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>606</v>
       </c>
@@ -10905,7 +10899,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>607</v>
       </c>
@@ -10927,13 +10921,13 @@
         <v>3554102</v>
       </c>
       <c r="C608" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D608" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>609</v>
       </c>
@@ -10955,13 +10949,13 @@
         <v>3554300</v>
       </c>
       <c r="C610" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D610" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>611</v>
       </c>
@@ -10975,7 +10969,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>612</v>
       </c>
@@ -10989,7 +10983,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>613</v>
       </c>
@@ -11003,7 +10997,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>614</v>
       </c>
@@ -11031,7 +11025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>616</v>
       </c>
@@ -11045,7 +11039,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>617</v>
       </c>
@@ -11059,7 +11053,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>618</v>
       </c>
@@ -11073,7 +11067,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>619</v>
       </c>
@@ -11087,7 +11081,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>620</v>
       </c>
@@ -11101,7 +11095,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>621</v>
       </c>
@@ -11115,7 +11109,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>622</v>
       </c>
@@ -11129,7 +11123,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>623</v>
       </c>
@@ -11143,7 +11137,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>624</v>
       </c>
@@ -11165,7 +11159,7 @@
         <v>3555406</v>
       </c>
       <c r="C625" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D625" s="2">
         <v>3</v>
@@ -11179,13 +11173,13 @@
         <v>3555505</v>
       </c>
       <c r="C626" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D626" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>627</v>
       </c>
@@ -11199,7 +11193,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>628</v>
       </c>
@@ -11213,7 +11207,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>629</v>
       </c>
@@ -11227,7 +11221,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>630</v>
       </c>
@@ -11241,7 +11235,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>631</v>
       </c>
@@ -11255,7 +11249,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>632</v>
       </c>
@@ -11277,7 +11271,7 @@
         <v>3556206</v>
       </c>
       <c r="C633" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D633" s="2">
         <v>1</v>
@@ -11291,7 +11285,7 @@
         <v>3556305</v>
       </c>
       <c r="C634" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D634" s="1">
         <v>1</v>
@@ -11311,7 +11305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>636</v>
       </c>
@@ -11325,7 +11319,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>637</v>
       </c>
@@ -11339,7 +11333,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>638</v>
       </c>
@@ -11375,13 +11369,13 @@
         <v>3556701</v>
       </c>
       <c r="C640" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D640" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>641</v>
       </c>
@@ -11395,7 +11389,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>642</v>
       </c>
@@ -11409,7 +11403,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>643</v>
       </c>
@@ -11423,7 +11417,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>644</v>
       </c>
@@ -11437,7 +11431,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>645</v>
       </c>
@@ -11451,7 +11445,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>646</v>
       </c>
